--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il2rg</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.291957749634797</v>
+        <v>0.6404143333333333</v>
       </c>
       <c r="H2">
-        <v>0.291957749634797</v>
+        <v>1.921243</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6110578901736126</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6110578901736127</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.24596085381</v>
+        <v>49.22961066666667</v>
       </c>
       <c r="N2">
-        <v>48.24596085381</v>
+        <v>147.688832</v>
       </c>
       <c r="O2">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="P2">
-        <v>0.310976124699498</v>
+        <v>0.31191911390397</v>
       </c>
       <c r="Q2">
-        <v>14.08578215984688</v>
+        <v>31.52734829535289</v>
       </c>
       <c r="R2">
-        <v>14.08578215984688</v>
+        <v>283.746134658176</v>
       </c>
       <c r="S2">
-        <v>0.310976124699498</v>
+        <v>0.1906006356469826</v>
       </c>
       <c r="T2">
-        <v>0.310976124699498</v>
+        <v>0.1906006356469827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.291957749634797</v>
+        <v>0.6404143333333333</v>
       </c>
       <c r="H3">
-        <v>0.291957749634797</v>
+        <v>1.921243</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6110578901736126</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6110578901736127</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.76626323450665</v>
+        <v>3.113353333333333</v>
       </c>
       <c r="N3">
-        <v>2.76626323450665</v>
+        <v>9.340059999999999</v>
       </c>
       <c r="O3">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="P3">
-        <v>0.01783033865098457</v>
+        <v>0.01972622573797533</v>
       </c>
       <c r="Q3">
-        <v>0.8076319888440362</v>
+        <v>1.993836099397778</v>
       </c>
       <c r="R3">
-        <v>0.8076319888440362</v>
+        <v>17.94452489458</v>
       </c>
       <c r="S3">
-        <v>0.01783033865098457</v>
+        <v>0.01205386588053562</v>
       </c>
       <c r="T3">
-        <v>0.01783033865098457</v>
+        <v>0.01205386588053562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.291957749634797</v>
+        <v>0.6404143333333333</v>
       </c>
       <c r="H4">
-        <v>0.291957749634797</v>
+        <v>1.921243</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6110578901736126</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6110578901736127</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.1411567013993</v>
+        <v>45.92553333333333</v>
       </c>
       <c r="N4">
-        <v>45.1411567013993</v>
+        <v>137.7766</v>
       </c>
       <c r="O4">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="P4">
-        <v>0.2909636729588599</v>
+        <v>0.2909844597369537</v>
       </c>
       <c r="Q4">
-        <v>13.17931052645227</v>
+        <v>29.41136981264444</v>
       </c>
       <c r="R4">
-        <v>13.17931052645227</v>
+        <v>264.7023283138</v>
       </c>
       <c r="S4">
-        <v>0.2909636729588599</v>
+        <v>0.1778083500401714</v>
       </c>
       <c r="T4">
-        <v>0.2909636729588599</v>
+        <v>0.1778083500401715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.291957749634797</v>
+        <v>0.6404143333333333</v>
       </c>
       <c r="H5">
-        <v>0.291957749634797</v>
+        <v>1.921243</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6110578901736126</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6110578901736127</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.8700247939244</v>
+        <v>57.27783200000001</v>
       </c>
       <c r="N5">
-        <v>56.8700247939244</v>
+        <v>171.833496</v>
       </c>
       <c r="O5">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346761</v>
       </c>
       <c r="P5">
-        <v>0.3665637414822545</v>
+        <v>0.3629126934346762</v>
       </c>
       <c r="Q5">
-        <v>16.60364446050928</v>
+        <v>36.68154459505867</v>
       </c>
       <c r="R5">
-        <v>16.60364446050928</v>
+        <v>330.1339013555281</v>
       </c>
       <c r="S5">
-        <v>0.3665637414822545</v>
+        <v>0.2217606647674163</v>
       </c>
       <c r="T5">
-        <v>0.3665637414822545</v>
+        <v>0.2217606647674163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6404143333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.921243</v>
+      </c>
+      <c r="I6">
+        <v>0.6110578901736126</v>
+      </c>
+      <c r="J6">
+        <v>0.6110578901736127</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.281801333333334</v>
+      </c>
+      <c r="N6">
+        <v>6.845404</v>
+      </c>
+      <c r="O6">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="P6">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="Q6">
+        <v>1.461298279685778</v>
+      </c>
+      <c r="R6">
+        <v>13.151684517172</v>
+      </c>
+      <c r="S6">
+        <v>0.008834373838506609</v>
+      </c>
+      <c r="T6">
+        <v>0.008834373838506613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.298935</v>
+      </c>
+      <c r="H7">
+        <v>0.8968050000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2852318895616778</v>
+      </c>
+      <c r="J7">
+        <v>0.2852318895616779</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>49.22961066666667</v>
+      </c>
+      <c r="N7">
+        <v>147.688832</v>
+      </c>
+      <c r="O7">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="P7">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="Q7">
+        <v>14.71645366464</v>
+      </c>
+      <c r="R7">
+        <v>132.44808298176</v>
+      </c>
+      <c r="S7">
+        <v>0.08896927824923358</v>
+      </c>
+      <c r="T7">
+        <v>0.0889692782492336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.298935</v>
+      </c>
+      <c r="H8">
+        <v>0.8968050000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2852318895616778</v>
+      </c>
+      <c r="J8">
+        <v>0.2852318895616779</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.113353333333333</v>
+      </c>
+      <c r="N8">
+        <v>9.340059999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="P8">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="Q8">
+        <v>0.9306902786999999</v>
+      </c>
+      <c r="R8">
+        <v>8.3762125083</v>
+      </c>
+      <c r="S8">
+        <v>0.005626548641162905</v>
+      </c>
+      <c r="T8">
+        <v>0.005626548641162907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.298935</v>
+      </c>
+      <c r="H9">
+        <v>0.8968050000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2852318895616778</v>
+      </c>
+      <c r="J9">
+        <v>0.2852318895616779</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>45.92553333333333</v>
+      </c>
+      <c r="N9">
+        <v>137.7766</v>
+      </c>
+      <c r="O9">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="P9">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="Q9">
+        <v>13.728749307</v>
+      </c>
+      <c r="R9">
+        <v>123.558743763</v>
+      </c>
+      <c r="S9">
+        <v>0.08299804728385526</v>
+      </c>
+      <c r="T9">
+        <v>0.08299804728385529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.298935</v>
+      </c>
+      <c r="H10">
+        <v>0.8968050000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2852318895616778</v>
+      </c>
+      <c r="J10">
+        <v>0.2852318895616779</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>57.27783200000001</v>
+      </c>
+      <c r="N10">
+        <v>171.833496</v>
+      </c>
+      <c r="O10">
+        <v>0.3629126934346761</v>
+      </c>
+      <c r="P10">
+        <v>0.3629126934346762</v>
+      </c>
+      <c r="Q10">
+        <v>17.12234870892</v>
+      </c>
+      <c r="R10">
+        <v>154.10113838028</v>
+      </c>
+      <c r="S10">
+        <v>0.1035142732942906</v>
+      </c>
+      <c r="T10">
+        <v>0.1035142732942906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.298935</v>
+      </c>
+      <c r="H11">
+        <v>0.8968050000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2852318895616778</v>
+      </c>
+      <c r="J11">
+        <v>0.2852318895616779</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.281801333333334</v>
+      </c>
+      <c r="N11">
+        <v>6.845404</v>
+      </c>
+      <c r="O11">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="P11">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="Q11">
+        <v>0.6821102815800001</v>
+      </c>
+      <c r="R11">
+        <v>6.138992534220001</v>
+      </c>
+      <c r="S11">
+        <v>0.004123742093135496</v>
+      </c>
+      <c r="T11">
+        <v>0.004123742093135497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1086926666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.326078</v>
+      </c>
+      <c r="I12">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="J12">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>49.22961066666667</v>
+      </c>
+      <c r="N12">
+        <v>147.688832</v>
+      </c>
+      <c r="O12">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="P12">
+        <v>0.31191911390397</v>
+      </c>
+      <c r="Q12">
+        <v>5.350897662321778</v>
+      </c>
+      <c r="R12">
+        <v>48.15807896089599</v>
+      </c>
+      <c r="S12">
+        <v>0.03234920000775373</v>
+      </c>
+      <c r="T12">
+        <v>0.03234920000775374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1086926666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.326078</v>
+      </c>
+      <c r="I13">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="J13">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.113353333333333</v>
+      </c>
+      <c r="N13">
+        <v>9.340059999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="P13">
+        <v>0.01972622573797533</v>
+      </c>
+      <c r="Q13">
+        <v>0.3383986760755555</v>
+      </c>
+      <c r="R13">
+        <v>3.045588084679999</v>
+      </c>
+      <c r="S13">
+        <v>0.002045811216276802</v>
+      </c>
+      <c r="T13">
+        <v>0.002045811216276803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1086926666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.326078</v>
+      </c>
+      <c r="I14">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="J14">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>45.92553333333333</v>
+      </c>
+      <c r="N14">
+        <v>137.7766</v>
+      </c>
+      <c r="O14">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="P14">
+        <v>0.2909844597369537</v>
+      </c>
+      <c r="Q14">
+        <v>4.991768686088888</v>
+      </c>
+      <c r="R14">
+        <v>44.9259181748</v>
+      </c>
+      <c r="S14">
+        <v>0.03017806241292695</v>
+      </c>
+      <c r="T14">
+        <v>0.03017806241292696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.291957749634797</v>
-      </c>
-      <c r="H6">
-        <v>0.291957749634797</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.12021163273267</v>
-      </c>
-      <c r="N6">
-        <v>2.12021163273267</v>
-      </c>
-      <c r="O6">
-        <v>0.01366612220840314</v>
-      </c>
-      <c r="P6">
-        <v>0.01366612220840314</v>
-      </c>
-      <c r="Q6">
-        <v>0.619012217042149</v>
-      </c>
-      <c r="R6">
-        <v>0.619012217042149</v>
-      </c>
-      <c r="S6">
-        <v>0.01366612220840314</v>
-      </c>
-      <c r="T6">
-        <v>0.01366612220840314</v>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1086926666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.326078</v>
+      </c>
+      <c r="I15">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="J15">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>57.27783200000001</v>
+      </c>
+      <c r="N15">
+        <v>171.833496</v>
+      </c>
+      <c r="O15">
+        <v>0.3629126934346761</v>
+      </c>
+      <c r="P15">
+        <v>0.3629126934346762</v>
+      </c>
+      <c r="Q15">
+        <v>6.225680300965334</v>
+      </c>
+      <c r="R15">
+        <v>56.031122708688</v>
+      </c>
+      <c r="S15">
+        <v>0.03763775537296924</v>
+      </c>
+      <c r="T15">
+        <v>0.03763775537296925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1086926666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.326078</v>
+      </c>
+      <c r="I16">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="J16">
+        <v>0.1037102202647095</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.281801333333334</v>
+      </c>
+      <c r="N16">
+        <v>6.845404</v>
+      </c>
+      <c r="O16">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="P16">
+        <v>0.01445750718642485</v>
+      </c>
+      <c r="Q16">
+        <v>0.2480150717235556</v>
+      </c>
+      <c r="R16">
+        <v>2.232135645512</v>
+      </c>
+      <c r="S16">
+        <v>0.001499391254782741</v>
+      </c>
+      <c r="T16">
+        <v>0.001499391254782741</v>
       </c>
     </row>
   </sheetData>
